--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB5A3B0-2460-488C-9AB8-27403F7BADE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56918E-B1BC-4963-BB02-F57BF9D1FBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
     <sheet name="Systems" sheetId="20" r:id="rId2"/>
-    <sheet name="Role" sheetId="13" r:id="rId3"/>
-    <sheet name="Project Status" sheetId="22" r:id="rId4"/>
+    <sheet name="TODO" sheetId="23" r:id="rId3"/>
+    <sheet name="Role" sheetId="13" r:id="rId4"/>
+    <sheet name="Project Status" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -193,8 +194,101 @@
     <t>Customer needs + Analyse Market Requirement</t>
   </si>
   <si>
+    <t>Aarti B.</t>
+  </si>
+  <si>
+    <t>Mandatory - BD &amp; QA participation</t>
+  </si>
+  <si>
+    <t>Swapnil</t>
+  </si>
+  <si>
+    <t>Segmented LCD - electrical spec</t>
+  </si>
+  <si>
+    <t>Instrument Cluster Support</t>
+  </si>
+  <si>
+    <t>IOT (Web Tech)</t>
+  </si>
+  <si>
+    <t>Aarti B</t>
+  </si>
+  <si>
+    <t>RTOS &amp; Linux</t>
+  </si>
+  <si>
+    <t>Product Support</t>
+  </si>
+  <si>
+    <t>CAN Device Driver, Socket Programming</t>
+  </si>
+  <si>
+    <t>Linux OS Virtual</t>
+  </si>
+  <si>
+    <t>LINUX (Widget Toolkit)</t>
+  </si>
+  <si>
+    <t>CLI Application</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>To collect development inputs for IOT</t>
+  </si>
+  <si>
+    <t>To collect development inputs for Infotainment System</t>
+  </si>
+  <si>
+    <t>Training Completed (Code Shared)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Completed </t>
+  </si>
+  <si>
+    <t>Trainee (Code Shared)</t>
+  </si>
+  <si>
+    <t>Improve Marketing &amp; EOL Testing</t>
+  </si>
+  <si>
+    <t>Advanced Web Technologies</t>
+  </si>
+  <si>
+    <t>GUI/HMI Development, OOP</t>
+  </si>
+  <si>
+    <t>Cloud Server (Google Firebase)</t>
+  </si>
+  <si>
+    <t>Support TFT Cluster (Infotainment System) Development</t>
+  </si>
+  <si>
+    <t>Support IOT (ESP) Development</t>
+  </si>
+  <si>
+    <t>Dheeraj</t>
+  </si>
+  <si>
+    <t>Create a permeant standard CAN Matrix for PVG</t>
+  </si>
+  <si>
+    <t>Communicate with the Abzo Motors team.</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>Software qualification test, ISO26262 Safety requirements(Ready Symbol), BMS and MCU issues</t>
+  </si>
+  <si>
+    <t>GUI/Sparklet-C++ (OOP)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Cluster outer shape &amp; 5" Color LCD proposal to be finalised for </t>
+      <t xml:space="preserve">5" Color LCD to be finalised for </t>
     </r>
     <r>
       <rPr>
@@ -207,127 +301,46 @@
     </r>
   </si>
   <si>
-    <t>Aarti B.</t>
-  </si>
-  <si>
-    <t>Demontration of Instument Cluster to CFT</t>
-  </si>
-  <si>
-    <t>Aarti B, Dhanal Sir</t>
-  </si>
-  <si>
-    <t>Mandatory - BD &amp; QA participation</t>
-  </si>
-  <si>
-    <t>Swapnil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update cluster datasheet </t>
-  </si>
-  <si>
-    <t>Segmented LCD - electrical spec</t>
-  </si>
-  <si>
-    <t>Swapnil, Avinash Sir</t>
-  </si>
-  <si>
-    <t>Boost Marketing</t>
-  </si>
-  <si>
-    <t>Instrument Cluster Support</t>
-  </si>
-  <si>
-    <t>IOT (Web Tech)</t>
-  </si>
-  <si>
-    <t>GUI/QT-C++ (OOP)</t>
-  </si>
-  <si>
-    <t>Aarti B</t>
-  </si>
-  <si>
-    <t>RTOS &amp; Linux</t>
-  </si>
-  <si>
-    <t>Product Support</t>
-  </si>
-  <si>
-    <t>5" Color LCD proposal to be prepared for scooter segment. Various Enclosure &amp; LCD Dimensions proposals to be prepared,  Drawing need to be prepare for LCD &amp; Backlite after finalizing</t>
-  </si>
-  <si>
-    <t>CAN Device Driver, Socket Programming</t>
-  </si>
-  <si>
-    <t>Linux OS Virtual</t>
-  </si>
-  <si>
-    <t>LINUX (Widget Toolkit)</t>
-  </si>
-  <si>
-    <t>CLI Application</t>
-  </si>
-  <si>
-    <t>ASAP</t>
-  </si>
-  <si>
-    <t>To collect development inputs for IOT</t>
-  </si>
-  <si>
-    <t>To collect development inputs for Infotainment System</t>
-  </si>
-  <si>
-    <t>Training Completed (Code Shared)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training Completed </t>
-  </si>
-  <si>
-    <t>Trainee (Code Shared)</t>
-  </si>
-  <si>
-    <t>Improve Marketing &amp; EOL Testing</t>
-  </si>
-  <si>
-    <t>Advanced Web Technologies</t>
-  </si>
-  <si>
-    <t>GUI/HMI Development, OOP</t>
-  </si>
-  <si>
-    <t>Cloud Server (Google Firebase)</t>
-  </si>
-  <si>
-    <t>Support TFT Cluster (Infotainment System) Development</t>
-  </si>
-  <si>
-    <t>Support IOT (ESP) Development</t>
-  </si>
-  <si>
-    <t>Mangesh, Aarti B</t>
-  </si>
-  <si>
-    <t>Software qualification test, ISO26262 Safety requirements, BMS and MCU issues</t>
-  </si>
-  <si>
-    <t>Dheeraj</t>
-  </si>
-  <si>
-    <t>Create a permeant standard CAN Matrix for PVG</t>
-  </si>
-  <si>
-    <t>Communicate with the Abzo Motors team.</t>
-  </si>
-  <si>
-    <t>Overdue</t>
-  </si>
-  <si>
-    <t>Refer Symbols &amp; their Functions shared by Embedded Dept.</t>
-  </si>
-  <si>
-    <t>Verify the electrical specification of LCD &amp; backlight, and conform weather required 3.3V instead of 5V for adding Bluetooth device</t>
-  </si>
-  <si>
-    <t>Bluetooth Implimentation (27-Jul-23)</t>
+    <t>Collect R_CAR/BeagleBone &amp; RH850 reference design</t>
+  </si>
+  <si>
+    <t>Communicate with Pratik</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Binary Sequence</t>
+  </si>
+  <si>
+    <t>Macros(#define)</t>
+  </si>
+  <si>
+    <t>Swapnil, Aarti B</t>
+  </si>
+  <si>
+    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
+  </si>
+  <si>
+    <t>Clarify the rationale behind operating the cluster at 5V? as it can be configured to 3.3V.</t>
+  </si>
+  <si>
+    <t>Bluetooth Implimentation</t>
+  </si>
+  <si>
+    <t>Drawing need to prepare for LCD &amp; Backlite after finalizing</t>
+  </si>
+  <si>
+    <t>Update LCD Dwawing with the finalized segment colors to share with our supplier</t>
+  </si>
+  <si>
+    <t>Avinash sir, Mangesh</t>
+  </si>
+  <si>
+    <t>Update Color LCD Dwawing for bike segment.</t>
+  </si>
+  <si>
+    <t>Bike segment Color LCD Demo for Marketing</t>
   </si>
 </sst>
 </file>
@@ -721,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,9 +841,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,9 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,6 +908,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -927,6 +946,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,29 +1250,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1258,13 +1280,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1273,18 +1295,18 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="51">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -1293,53 +1315,53 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="51">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="69"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="51">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1377,27 +1399,27 @@
       <c r="E9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="57">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1413,17 +1435,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
@@ -1432,16 +1454,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
+      <c r="A1" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1470,319 +1492,339 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="58">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="59">
+        <v>45075</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="61">
-        <v>45075</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="48">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>95</v>
+      <c r="D4" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="46">
-        <v>45177</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="34">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>60</v>
+      <c r="B5" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="53"/>
+      <c r="F5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="51"/>
       <c r="H5" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="50">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A6" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="47">
+        <v>1</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="45">
+        <v>45134</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A7" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A9" s="49">
-        <v>1</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>96</v>
+      <c r="B9" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="46">
-        <v>45196</v>
+      <c r="F9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="45">
+        <v>45135</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A10" s="41">
-        <v>2</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="64">
+        <v>3</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="46">
-        <v>45135</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="F10" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="50">
-        <v>3</v>
+      <c r="A11" s="64">
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="53"/>
+      <c r="F11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="51"/>
       <c r="H11" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A12" s="50">
-        <v>4</v>
+      <c r="A12" s="64">
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="64">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="50">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>82</v>
+      <c r="C13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="54"/>
+      <c r="F13" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="52"/>
       <c r="H13" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="35">
-        <v>6</v>
+      <c r="A14" s="64">
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A15" s="35">
-        <v>7</v>
+      <c r="A15" s="64">
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="54"/>
+      <c r="F15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="52"/>
       <c r="H15" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A16" s="64">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1790,6 +1832,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1904,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -1942,7 +2033,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -1952,7 +2043,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -1992,7 +2083,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2002,7 +2093,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56918E-B1BC-4963-BB02-F57BF9D1FBCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03C36C-E81C-491C-AA3F-FA1D1AB6AB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,60 +287,59 @@
     <t>GUI/Sparklet-C++ (OOP)</t>
   </si>
   <si>
+    <t>Collect R_CAR/BeagleBone &amp; RH850 reference design</t>
+  </si>
+  <si>
+    <t>Communicate with Pratik</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Binary Sequence</t>
+  </si>
+  <si>
+    <t>Macros(#define)</t>
+  </si>
+  <si>
+    <t>Swapnil, Aarti B</t>
+  </si>
+  <si>
+    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
+  </si>
+  <si>
+    <t>Clarify the rationale behind operating the cluster at 5V? as it can be configured to 3.3V.</t>
+  </si>
+  <si>
+    <t>Bluetooth Implimentation</t>
+  </si>
+  <si>
+    <t>Drawing need to prepare for LCD &amp; Backlite after finalizing</t>
+  </si>
+  <si>
+    <t>Update LCD Dwawing with the finalized segment colors to share with our supplier</t>
+  </si>
+  <si>
+    <t>Avinash sir, Mangesh</t>
+  </si>
+  <si>
+    <t>Update Color LCD Dwawing for bike segment.</t>
+  </si>
+  <si>
+    <t>Bike segment Color LCD Demo for Marketing</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">5" Color LCD to be finalised for </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
       <t>scooter segment.</t>
     </r>
-  </si>
-  <si>
-    <t>Collect R_CAR/BeagleBone &amp; RH850 reference design</t>
-  </si>
-  <si>
-    <t>Communicate with Pratik</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Binary Sequence</t>
-  </si>
-  <si>
-    <t>Macros(#define)</t>
-  </si>
-  <si>
-    <t>Swapnil, Aarti B</t>
-  </si>
-  <si>
-    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
-  </si>
-  <si>
-    <t>Clarify the rationale behind operating the cluster at 5V? as it can be configured to 3.3V.</t>
-  </si>
-  <si>
-    <t>Bluetooth Implimentation</t>
-  </si>
-  <si>
-    <t>Drawing need to prepare for LCD &amp; Backlite after finalizing</t>
-  </si>
-  <si>
-    <t>Update LCD Dwawing with the finalized segment colors to share with our supplier</t>
-  </si>
-  <si>
-    <t>Avinash sir, Mangesh</t>
-  </si>
-  <si>
-    <t>Update Color LCD Dwawing for bike segment.</t>
-  </si>
-  <si>
-    <t>Bike segment Color LCD Demo for Marketing</t>
   </si>
 </sst>
 </file>
@@ -445,12 +444,6 @@
       <name val="Bahnschrift"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -458,8 +451,12 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -900,14 +897,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,6 +916,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -947,9 +946,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1438,7 +1435,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1501,7 +1498,7 @@
       <c r="C3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="74" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="18" t="s">
@@ -1522,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>57</v>
@@ -1614,13 +1611,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="45">
         <v>45134</v>
@@ -1634,13 +1631,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
@@ -1656,29 +1653,29 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>3</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>100</v>
+      <c r="B10" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1702,7 +1699,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1726,17 +1723,17 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="64">
+      <c r="A13" s="63">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>3</v>
@@ -1750,7 +1747,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="64">
+      <c r="A14" s="63">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1774,7 +1771,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A15" s="64">
+      <c r="A15" s="63">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1798,7 +1795,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A16" s="64">
+      <c r="A16" s="63">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1847,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -1857,19 +1854,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="62"/>
+      <c r="A2" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="61"/>
       <c r="C2" s="14">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="62"/>
+      <c r="A3" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="61"/>
       <c r="C3" s="14">
         <v>0.70833333333333337</v>
       </c>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03C36C-E81C-491C-AA3F-FA1D1AB6AB49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6D044-3D91-47DE-820F-A3F9A67E27DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>Aarti B.</t>
   </si>
   <si>
-    <t>Mandatory - BD &amp; QA participation</t>
-  </si>
-  <si>
     <t>Swapnil</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Trainee (Code Shared)</t>
   </si>
   <si>
-    <t>Improve Marketing &amp; EOL Testing</t>
-  </si>
-  <si>
     <t>Advanced Web Technologies</t>
   </si>
   <si>
@@ -287,12 +281,6 @@
     <t>GUI/Sparklet-C++ (OOP)</t>
   </si>
   <si>
-    <t>Collect R_CAR/BeagleBone &amp; RH850 reference design</t>
-  </si>
-  <si>
-    <t>Communicate with Pratik</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -300,12 +288,6 @@
   </si>
   <si>
     <t>Macros(#define)</t>
-  </si>
-  <si>
-    <t>Swapnil, Aarti B</t>
-  </si>
-  <si>
-    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
   </si>
   <si>
     <t>Clarify the rationale behind operating the cluster at 5V? as it can be configured to 3.3V.</t>
@@ -340,6 +322,24 @@
       </rPr>
       <t>scooter segment.</t>
     </r>
+  </si>
+  <si>
+    <t>Collect R_CAR/BeagleBone &amp; RH850</t>
+  </si>
+  <si>
+    <t>Starter Kit to be collected for RCAR, and Reference Design  for RH850 from Pratik</t>
+  </si>
+  <si>
+    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
+  </si>
+  <si>
+    <t>Swapnil, Aarti B</t>
+  </si>
+  <si>
+    <t>Mandatory - BD &amp; QA participation</t>
+  </si>
+  <si>
+    <t>Improve Marketing &amp; EOL Testing</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,6 +919,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,7 +950,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1247,14 +1262,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
@@ -1292,7 +1307,7 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="70" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1312,7 +1327,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="49">
@@ -1330,7 +1345,7 @@
       <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="49">
@@ -1343,22 +1358,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1405,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>38</v>
@@ -1435,7 +1450,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,16 +1466,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="A1" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1493,49 +1508,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="57" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="59">
         <v>45075</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" thickBot="1">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>57</v>
+      <c r="B4" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="51"/>
+      <c r="F4" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="59"/>
       <c r="H4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -1546,33 +1561,33 @@
         <v>42</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
@@ -1605,25 +1620,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G8" s="45">
         <v>45134</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
@@ -1631,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
@@ -1649,7 +1664,7 @@
         <v>45135</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
@@ -1657,19 +1672,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="14"/>
@@ -1679,23 +1694,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
@@ -1703,23 +1718,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>62</v>
-      </c>
       <c r="D12" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -1727,23 +1742,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
@@ -1751,23 +1766,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
@@ -1781,17 +1796,17 @@
         <v>56</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
@@ -1805,17 +1820,17 @@
         <v>56</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -1855,7 +1870,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="14">
@@ -1864,7 +1879,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="14">
@@ -2030,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -2040,7 +2055,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -2080,7 +2095,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2090,7 +2105,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E6D044-3D91-47DE-820F-A3F9A67E27DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E64E6-4306-4A24-80CA-CE6AFBE14036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Widget Toolkit (Qt Creator)</t>
   </si>
   <si>
-    <t>Demontration of TFT Cluster to CFT</t>
-  </si>
-  <si>
     <t>Demontration of IOT to CFT</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Improve Marketing &amp; EOL Testing</t>
+  </si>
+  <si>
+    <t>Demontration of TFT Cluster to CFT &amp; Pratik</t>
   </si>
 </sst>
 </file>
@@ -923,6 +923,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,18 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,14 +1262,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
@@ -1307,8 +1307,8 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="70" t="s">
-        <v>54</v>
+      <c r="F3" s="74" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
@@ -1327,7 +1327,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="49">
@@ -1345,7 +1345,7 @@
       <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="49">
@@ -1358,22 +1358,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
@@ -1412,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
@@ -1420,19 +1420,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,16 +1466,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="A1" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1494,349 +1494,349 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="56">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="59">
-        <v>45075</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" thickBot="1">
-      <c r="A4" s="66">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>100</v>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="63">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="48">
-        <v>3</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="51"/>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="52"/>
       <c r="H5" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A6" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="47">
-        <v>1</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>88</v>
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="45">
-        <v>45134</v>
-      </c>
+      <c r="F8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="52"/>
       <c r="H8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="40">
-        <v>2</v>
+      <c r="A9" s="47">
+        <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G9" s="45">
-        <v>45135</v>
+        <v>45134</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="63">
-        <v>3</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>92</v>
+      <c r="A10" s="40">
+        <v>8</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="45">
+        <v>45135</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="63">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A12" s="63">
+        <v>93</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A12" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A14" s="48">
+        <v>1</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="63">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="63">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>73</v>
+      <c r="D14" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>62</v>
+      </c>
+      <c r="G14" s="51"/>
       <c r="H14" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A15" s="63">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" thickBot="1">
+      <c r="A15" s="66">
+        <v>2</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="52"/>
+      <c r="F15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="59"/>
       <c r="H15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A16" s="63">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>72</v>
+      <c r="A16" s="56">
+        <v>3</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="52"/>
+        <v>81</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="59">
+        <v>45075</v>
+      </c>
       <c r="H16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1859,18 +1859,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="14">
@@ -1879,7 +1879,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="14">
@@ -1928,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>28</v>
@@ -1938,7 +1938,7 @@
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
@@ -1948,7 +1948,7 @@
       <c r="A4" s="23"/>
       <c r="B4" s="25"/>
       <c r="C4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>30</v>
@@ -1958,7 +1958,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="25"/>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -2045,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -2055,7 +2055,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -2095,7 +2095,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2105,7 +2105,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E64E6-4306-4A24-80CA-CE6AFBE14036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D7ED5-0EE0-44B4-BFCC-C3F677ECAC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -152,9 +152,6 @@
     <t>IOT (ESP) Development</t>
   </si>
   <si>
-    <t>CAN &amp; EEL Code (Study RL78 Datasheet)</t>
-  </si>
-  <si>
     <t>Widget Toolkit (Qt Creator)</t>
   </si>
   <si>
@@ -194,15 +191,6 @@
     <t>Aarti B.</t>
   </si>
   <si>
-    <t>Swapnil</t>
-  </si>
-  <si>
-    <t>Segmented LCD - electrical spec</t>
-  </si>
-  <si>
-    <t>Instrument Cluster Support</t>
-  </si>
-  <si>
     <t>IOT (Web Tech)</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>RTOS &amp; Linux</t>
   </si>
   <si>
-    <t>Product Support</t>
-  </si>
-  <si>
     <t>CAN Device Driver, Socket Programming</t>
   </si>
   <si>
@@ -260,21 +245,6 @@
     <t>Support IOT (ESP) Development</t>
   </si>
   <si>
-    <t>Dheeraj</t>
-  </si>
-  <si>
-    <t>Create a permeant standard CAN Matrix for PVG</t>
-  </si>
-  <si>
-    <t>Communicate with the Abzo Motors team.</t>
-  </si>
-  <si>
-    <t>Overdue</t>
-  </si>
-  <si>
-    <t>Software qualification test, ISO26262 Safety requirements(Ready Symbol), BMS and MCU issues</t>
-  </si>
-  <si>
     <t>GUI/Sparklet-C++ (OOP)</t>
   </si>
   <si>
@@ -285,12 +255,6 @@
   </si>
   <si>
     <t>Macros(#define)</t>
-  </si>
-  <si>
-    <t>Clarify the rationale behind operating the cluster at 5V? as it can be configured to 3.3V.</t>
-  </si>
-  <si>
-    <t>Bluetooth Implimentation</t>
   </si>
   <si>
     <t>Drawing need to prepare for LCD &amp; Backlite after finalizing</t>
@@ -327,18 +291,6 @@
     <t>Starter Kit to be collected for RCAR, and Reference Design  for RH850 from Pratik</t>
   </si>
   <si>
-    <t>Explain the  cluster symbols, their respective functions, and the electrical specifications to the CFT team</t>
-  </si>
-  <si>
-    <t>Swapnil, Aarti B</t>
-  </si>
-  <si>
-    <t>Mandatory - BD &amp; QA participation</t>
-  </si>
-  <si>
-    <t>Improve Marketing &amp; EOL Testing</t>
-  </si>
-  <si>
     <t>Demontration of TFT Cluster to CFT &amp; Pratik</t>
   </si>
 </sst>
@@ -349,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +353,6 @@
       <name val="+mj-lt"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -444,22 +388,9 @@
       <name val="Bahnschrift"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -512,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -660,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -727,11 +649,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,7 +702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,25 +732,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,15 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -894,16 +806,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,55 +818,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1262,14 +1138,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
@@ -1288,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
@@ -1307,12 +1183,12 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="74" t="s">
-        <v>53</v>
+      <c r="F3" s="61" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1327,10 +1203,10 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="49">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1345,35 +1221,35 @@
       <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="49">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1392,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
@@ -1412,27 +1288,27 @@
         <v>7</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="55">
+      <c r="A10" s="52">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>73</v>
+      <c r="B10" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>75</v>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1447,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,16 +1342,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1494,348 +1370,209 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="63">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="G3" s="48"/>
       <c r="H3" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="63">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="52"/>
+        <v>71</v>
+      </c>
+      <c r="G4" s="49"/>
       <c r="H4" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="63">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="52"/>
+        <v>64</v>
+      </c>
+      <c r="G5" s="49"/>
       <c r="H5" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="56">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="63">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>72</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="52"/>
+        <v>71</v>
+      </c>
+      <c r="G6" s="49"/>
       <c r="H6" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="63">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>72</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="G7" s="48"/>
       <c r="H7" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="63">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="52"/>
+        <v>63</v>
+      </c>
+      <c r="G8" s="49"/>
       <c r="H8" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="47">
+      <c r="A9" s="40">
         <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G9" s="45">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="40">
+      <c r="A10" s="56">
         <v>8</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>89</v>
+      <c r="B10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="45">
-        <v>45135</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="63">
-        <v>9</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A12" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A14" s="48">
-        <v>1</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" thickBot="1">
-      <c r="A15" s="66">
-        <v>2</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A16" s="56">
-        <v>3</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="59">
-        <v>45075</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A12:H12"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,29 +1596,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="61"/>
+      <c r="A2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="54"/>
       <c r="C2" s="14">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="61"/>
+      <c r="A3" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="54"/>
       <c r="C3" s="14">
         <v>0.70833333333333337</v>
       </c>
@@ -1928,7 +1665,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>28</v>
@@ -1938,7 +1675,7 @@
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
@@ -1948,7 +1685,7 @@
       <c r="A4" s="23"/>
       <c r="B4" s="25"/>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>30</v>
@@ -1958,7 +1695,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="25"/>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -1966,7 +1703,7 @@
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -2045,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -2055,7 +1792,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -2095,7 +1832,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -2105,7 +1842,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D7ED5-0EE0-44B4-BFCC-C3F677ECAC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -297,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1118,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1322,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,10 +1580,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1630,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1745,7 +1744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D7ED5-0EE0-44B4-BFCC-C3F677ECAC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1117,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1321,11 +1322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1580,10 +1581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1629,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1744,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D7ED5-0EE0-44B4-BFCC-C3F677ECAC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -191,15 +190,9 @@
     <t>Aarti B.</t>
   </si>
   <si>
-    <t>IOT (Web Tech)</t>
-  </si>
-  <si>
     <t>Aarti B</t>
   </si>
   <si>
-    <t>RTOS &amp; Linux</t>
-  </si>
-  <si>
     <t>CAN Device Driver, Socket Programming</t>
   </si>
   <si>
@@ -227,9 +220,6 @@
     <t xml:space="preserve">Training Completed </t>
   </si>
   <si>
-    <t>Trainee (Code Shared)</t>
-  </si>
-  <si>
     <t>Advanced Web Technologies</t>
   </si>
   <si>
@@ -240,9 +230,6 @@
   </si>
   <si>
     <t>Support TFT Cluster (Infotainment System) Development</t>
-  </si>
-  <si>
-    <t>Support IOT (ESP) Development</t>
   </si>
   <si>
     <t>GUI/Sparklet-C++ (OOP)</t>
@@ -297,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1111,14 +1098,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1234,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>38</v>
@@ -1296,13 +1283,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>38</v>
@@ -1322,11 +1309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,23 +1371,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -1408,23 +1395,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -1432,23 +1419,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
@@ -1456,120 +1443,72 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>71</v>
+      <c r="F6" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="56">
+      <c r="A7" s="40">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>56</v>
+      <c r="B7" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="G7" s="45">
+        <v>45135</v>
+      </c>
       <c r="H7" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>66</v>
+      <c r="B8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>74</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="40">
-        <v>7</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="50" t="s">
+      <c r="F8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="45">
-        <v>45135</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="56">
-        <v>8</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="14"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1581,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
@@ -1596,7 +1535,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -1607,7 +1546,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="14">
@@ -1616,7 +1555,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="14">
@@ -1630,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1745,10 +1684,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1782,7 +1721,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -1792,7 +1731,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -1832,7 +1771,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -1842,7 +1781,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B151C-D19D-4756-AAE0-B1D8DF542FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -152,9 +153,6 @@
   </si>
   <si>
     <t>Widget Toolkit (Qt Creator)</t>
-  </si>
-  <si>
-    <t>Demontration of IOT to CFT</t>
   </si>
   <si>
     <t>Time to submit</t>
@@ -280,11 +278,29 @@
   <si>
     <t>Demontration of TFT Cluster to CFT &amp; Pratik</t>
   </si>
+  <si>
+    <t>Demontration of IOT (BMS Monitoring) to CFT</t>
+  </si>
+  <si>
+    <t>RTOS &amp; Linux</t>
+  </si>
+  <si>
+    <t>IOT (Web Tech)</t>
+  </si>
+  <si>
+    <t>Support IOT (ESP) Development</t>
+  </si>
+  <si>
+    <t>CAN &amp; EEL Code (Study RL78 Datasheet)</t>
+  </si>
+  <si>
+    <t>Product Support</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -639,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,6 +842,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,14 +1156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1151,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
@@ -1171,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
@@ -1221,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>38</v>
@@ -1255,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
@@ -1275,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
@@ -1283,19 +1341,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1309,11 +1367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1357,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -1371,23 +1429,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -1395,23 +1453,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -1419,23 +1477,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
@@ -1443,23 +1501,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
@@ -1467,25 +1525,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="45">
         <v>45135</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
@@ -1493,22 +1551,94 @@
         <v>6</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="68">
+        <v>7</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="68">
+        <v>8</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="76">
+        <v>9</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="73" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1520,10 +1650,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1535,18 +1667,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="14">
@@ -1555,7 +1687,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="14">
@@ -1569,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1604,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>28</v>
@@ -1614,7 +1746,7 @@
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
@@ -1624,7 +1756,7 @@
       <c r="A4" s="23"/>
       <c r="B4" s="25"/>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>30</v>
@@ -1634,7 +1766,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="25"/>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -1642,7 +1774,7 @@
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -1684,10 +1816,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1721,7 +1853,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -1731,7 +1863,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -1771,7 +1903,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -1781,7 +1913,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B151C-D19D-4756-AAE0-B1D8DF542FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -276,12 +275,6 @@
     <t>Starter Kit to be collected for RCAR, and Reference Design  for RH850 from Pratik</t>
   </si>
   <si>
-    <t>Demontration of TFT Cluster to CFT &amp; Pratik</t>
-  </si>
-  <si>
-    <t>Demontration of IOT (BMS Monitoring) to CFT</t>
-  </si>
-  <si>
     <t>RTOS &amp; Linux</t>
   </si>
   <si>
@@ -295,12 +288,21 @@
   </si>
   <si>
     <t>Product Support</t>
+  </si>
+  <si>
+    <t>Training Completed , Create Video for demonstration</t>
+  </si>
+  <si>
+    <t>Demonstration of TFT Cluster to CFT &amp; Pratik</t>
+  </si>
+  <si>
+    <t>Demonstration of IOT (BMS Monitoring) to CFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -824,24 +826,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -884,6 +868,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,14 +1158,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1183,14 +1185,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
@@ -1228,7 +1230,7 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="77" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1248,7 +1250,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="47">
@@ -1266,7 +1268,7 @@
       <c r="E5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="47">
@@ -1284,17 +1286,17 @@
       <c r="E6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1367,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1387,16 +1389,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1477,13 +1479,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3</v>
@@ -1501,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>53</v>
@@ -1569,74 +1571,74 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="68">
+      <c r="A9" s="62">
         <v>7</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="G10" s="64"/>
+      <c r="H10" s="60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="70">
+        <v>9</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D11" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="68">
-        <v>8</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="69" t="s">
+      <c r="F11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="76">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="73" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="67" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1650,10 +1652,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B2431E-8644-4CFD-BFBC-3AFFFB1D99A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1816,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2FB506-A501-4F9A-955F-D209C75FFEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -184,9 +185,6 @@
     <t>Customer needs + Analyse Market Requirement</t>
   </si>
   <si>
-    <t>Aarti B.</t>
-  </si>
-  <si>
     <t>Aarti B</t>
   </si>
   <si>
@@ -205,18 +203,9 @@
     <t>ASAP</t>
   </si>
   <si>
-    <t>To collect development inputs for IOT</t>
-  </si>
-  <si>
-    <t>To collect development inputs for Infotainment System</t>
-  </si>
-  <si>
     <t>Training Completed (Code Shared)</t>
   </si>
   <si>
-    <t xml:space="preserve">Training Completed </t>
-  </si>
-  <si>
     <t>Advanced Web Technologies</t>
   </si>
   <si>
@@ -244,16 +233,7 @@
     <t>Drawing need to prepare for LCD &amp; Backlite after finalizing</t>
   </si>
   <si>
-    <t>Update LCD Dwawing with the finalized segment colors to share with our supplier</t>
-  </si>
-  <si>
     <t>Avinash sir, Mangesh</t>
-  </si>
-  <si>
-    <t>Update Color LCD Dwawing for bike segment.</t>
-  </si>
-  <si>
-    <t>Bike segment Color LCD Demo for Marketing</t>
   </si>
   <si>
     <r>
@@ -269,12 +249,6 @@
     </r>
   </si>
   <si>
-    <t>Collect R_CAR/BeagleBone &amp; RH850</t>
-  </si>
-  <si>
-    <t>Starter Kit to be collected for RCAR, and Reference Design  for RH850 from Pratik</t>
-  </si>
-  <si>
     <t>RTOS &amp; Linux</t>
   </si>
   <si>
@@ -290,19 +264,22 @@
     <t>Product Support</t>
   </si>
   <si>
-    <t>Training Completed , Create Video for demonstration</t>
-  </si>
-  <si>
-    <t>Demonstration of TFT Cluster to CFT &amp; Pratik</t>
-  </si>
-  <si>
-    <t>Demonstration of IOT (BMS Monitoring) to CFT</t>
+    <t>Collect R_CAR/BeagleBone &amp; Demo Code</t>
+  </si>
+  <si>
+    <t>Starter Kit to be collected for RCAR, and Reference Design  for RH850 from Pratik, Send reminder with video &amp; image</t>
+  </si>
+  <si>
+    <t>Mem Address</t>
+  </si>
+  <si>
+    <t>Variable Scope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -657,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,9 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,9 +779,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1158,18 +1126,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1185,29 +1153,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1215,13 +1183,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1230,18 +1198,18 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -1250,53 +1218,53 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="78"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="47">
+      <c r="A6" s="46">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1334,27 +1302,27 @@
       <c r="E9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="52">
+      <c r="A10" s="50">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="46" t="s">
+      <c r="D10" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1369,11 +1337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,16 +1357,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1427,219 +1395,149 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="56">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="48"/>
+      <c r="F3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="47"/>
       <c r="H3" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="49"/>
+      <c r="F4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="48"/>
       <c r="H4" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="59">
+        <v>3</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="56">
+      <c r="E5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A6" s="59">
+        <v>4</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D6" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="56">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="14" t="s">
-        <v>59</v>
+      <c r="F6" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="57" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>72</v>
+      <c r="B7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <v>45135</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="67">
+        <v>6</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="56">
-        <v>6</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="E8" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="62">
-        <v>7</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A10" s="62">
-        <v>8</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A11" s="70">
-        <v>9</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="67" t="s">
-        <v>59</v>
+      <c r="G8" s="70"/>
+      <c r="H8" s="64" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1652,11 +1550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,7 +1567,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
@@ -1679,20 +1577,38 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="54"/>
+      <c r="A2" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="52"/>
       <c r="C2" s="14">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="52"/>
       <c r="C3" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="64">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -1703,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1818,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1855,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>39</v>
@@ -1865,7 +1781,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>39</v>
@@ -1905,7 +1821,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>39</v>
@@ -1915,7 +1831,7 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>39</v>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
@@ -1158,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2FB506-A501-4F9A-955F-D209C75FFEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -279,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1126,18 +1125,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,10 +1618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1734,10 +1735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>Variable Scope</t>
+  </si>
+  <si>
+    <t>Reminder: PO -Segmented LCDS</t>
+  </si>
+  <si>
+    <t>Avinash &amp; Swapnil</t>
+  </si>
+  <si>
+    <t>Tue, Oct 17 at 1:03 PM</t>
+  </si>
+  <si>
+    <t>Check the design and electrical specifications according to the production batch requirements (5v(old PCB) or 3.3v(upcoming PCB)) and give us confirmation, Check that the supplier's electrical current requirements are compatible with the cluster's DC-DC</t>
   </si>
 </sst>
 </file>
@@ -633,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,6 +847,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1125,7 +1143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1152,14 +1170,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="37" t="s">
@@ -1197,7 +1215,7 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="76" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1217,7 +1235,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="46">
@@ -1235,7 +1253,7 @@
       <c r="E5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="46">
@@ -1253,17 +1271,17 @@
       <c r="E6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1337,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1348,24 +1366,24 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1441,27 +1459,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="59">
+    <row r="5" spans="1:8" ht="36.75" thickBot="1">
+      <c r="A5" s="71">
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="57" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1470,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>53</v>
@@ -1482,60 +1500,84 @@
         <v>3</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="61"/>
+        <v>63</v>
+      </c>
+      <c r="G6" s="62"/>
       <c r="H6" s="57" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="39">
+      <c r="A7" s="59">
         <v>5</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="39">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D8" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G8" s="44">
         <v>45135</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="67">
-        <v>6</v>
-      </c>
-      <c r="B8" s="69" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="67">
+        <v>7</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D9" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F9" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="64" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1738,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -284,7 +284,9 @@
     <t>Tue, Oct 17 at 1:03 PM</t>
   </si>
   <si>
-    <t>Check the design and electrical specifications according to the production batch requirements (5v(old PCB) or 3.3v(upcoming PCB)) and give us confirmation, Check that the supplier's electrical current requirements are compatible with the cluster's DC-DC</t>
+    <t>Check the design and electrical specifications according to the production batch requirements (5v(existing PCB) or 3.3v(upcoming PCB)) and give us confirmation, 
+Check that the supplier's electrical current requirements are compatible with the cluster's DC-DC, 
+Confirm if you need more timeline to develop 3.3v H/W and if so, keep existing 5v PCBs needed for marketing samples of multi-color bike displays.</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1358,7 +1360,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,7 +1461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36.75" thickBot="1">
+    <row r="5" spans="1:8" ht="60.75" thickBot="1">
       <c r="A5" s="71">
         <v>3</v>
       </c>

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AFD3F5-D354-4222-B1C0-45C4CA20F14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -274,25 +275,11 @@
   <si>
     <t>Variable Scope</t>
   </si>
-  <si>
-    <t>Reminder: PO -Segmented LCDS</t>
-  </si>
-  <si>
-    <t>Avinash &amp; Swapnil</t>
-  </si>
-  <si>
-    <t>Tue, Oct 17 at 1:03 PM</t>
-  </si>
-  <si>
-    <t>Check the design and electrical specifications according to the production batch requirements (5v(existing PCB) or 3.3v(upcoming PCB)) and give us confirmation, 
-Check that the supplier's electrical current requirements are compatible with the cluster's DC-DC, 
-Confirm if you need more timeline to develop 3.3v H/W and if so, keep existing 5v PCBs needed for marketing samples of multi-color bike displays.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -647,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,12 +836,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1145,14 +1126,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1172,14 +1153,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="37" t="s">
@@ -1217,7 +1198,7 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="74" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1237,7 +1218,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="77"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="46">
@@ -1255,7 +1236,7 @@
       <c r="E5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="46">
@@ -1273,17 +1254,17 @@
       <c r="E6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1356,11 +1337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1376,16 +1357,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1461,27 +1442,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A5" s="71">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="64" t="s">
+      <c r="F5" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="57" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1490,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>53</v>
@@ -1502,84 +1483,60 @@
         <v>3</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="62"/>
+        <v>73</v>
+      </c>
+      <c r="G6" s="61"/>
       <c r="H6" s="57" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A7" s="59">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="44">
+        <v>45135</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="67">
+        <v>6</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="39">
-        <v>6</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="44">
-        <v>45135</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A9" s="67">
-        <v>7</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="68" t="s">
+      <c r="F8" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="64" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1593,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1662,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1779,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AFD3F5-D354-4222-B1C0-45C4CA20F14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -13,6 +12,7 @@
     <sheet name="TODO" sheetId="23" r:id="rId3"/>
     <sheet name="Role" sheetId="13" r:id="rId4"/>
     <sheet name="Project Status" sheetId="22" r:id="rId5"/>
+    <sheet name="MIS" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -275,11 +275,35 @@
   <si>
     <t>Variable Scope</t>
   </si>
+  <si>
+    <t xml:space="preserve">RCA(Supplier MegaEmbedded), H/W Pending Tasks, Marketing (8-Customers ), Color LCD Purchase </t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/mis-report-in-excel</t>
+  </si>
+  <si>
+    <t>https://www.upgrad.com/blog/what-is-excel-mis-report/</t>
+  </si>
+  <si>
+    <t>https://www.exceldemy.com/prepare-mis-report-in-excel/</t>
+  </si>
+  <si>
+    <t>https://www.iso-ne.com/markets-operations/settlements/understand-bill/reports-descriptions</t>
+  </si>
+  <si>
+    <t>https://www.simplilearn.com/tutorials/excel-tutorial/excel-mis-report</t>
+  </si>
+  <si>
+    <t>Seperate MIS for Embedded Software - Management Information Systems Report , Issues - Required Manpower(PCB Design Engineer)</t>
+  </si>
+  <si>
+    <t>Monthly Report - Logic Systech</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -634,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +860,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1126,14 +1156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,14 +1183,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="37" t="s">
@@ -1198,7 +1228,7 @@
       <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="76" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1218,7 +1248,7 @@
       <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="46">
@@ -1236,7 +1266,7 @@
       <c r="E5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="46">
@@ -1254,17 +1284,17 @@
       <c r="E6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -1337,19 +1367,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1357,16 +1387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1537,6 +1567,32 @@
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A9" s="71">
+        <v>7</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="44">
+        <v>45221</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1550,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1619,11 +1675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1736,7 +1792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1940,4 +1996,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pending & MIS.xlsx
+++ b/Pending & MIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E80D4-ED53-4FE3-B8FF-D9862F54B68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="9" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -279,31 +280,28 @@
     <t xml:space="preserve">RCA(Supplier MegaEmbedded), H/W Pending Tasks, Marketing (8-Customers ), Color LCD Purchase </t>
   </si>
   <si>
+    <t>Seperate MIS for Embedded Software - Management Information Systems Report , Issues - Required Manpower(PCB Design Engineer)</t>
+  </si>
+  <si>
+    <t>https://www.simplilearn.com/tutorials/excel-tutorial/excel-mis-report</t>
+  </si>
+  <si>
+    <t>https://www.iso-ne.com/markets-operations/settlements/understand-bill/reports-descriptions</t>
+  </si>
+  <si>
+    <t>https://www.exceldemy.com/prepare-mis-report-in-excel/</t>
+  </si>
+  <si>
+    <t>https://www.upgrad.com/blog/what-is-excel-mis-report/</t>
+  </si>
+  <si>
     <t>https://www.javatpoint.com/mis-report-in-excel</t>
-  </si>
-  <si>
-    <t>https://www.upgrad.com/blog/what-is-excel-mis-report/</t>
-  </si>
-  <si>
-    <t>https://www.exceldemy.com/prepare-mis-report-in-excel/</t>
-  </si>
-  <si>
-    <t>https://www.iso-ne.com/markets-operations/settlements/understand-bill/reports-descriptions</t>
-  </si>
-  <si>
-    <t>https://www.simplilearn.com/tutorials/excel-tutorial/excel-mis-report</t>
-  </si>
-  <si>
-    <t>Seperate MIS for Embedded Software - Management Information Systems Report , Issues - Required Manpower(PCB Design Engineer)</t>
-  </si>
-  <si>
-    <t>Monthly Report - Logic Systech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1156,14 +1154,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1367,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1581,7 +1579,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" s="66" t="s">
         <v>3</v>
@@ -1606,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -1675,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -1792,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1999,43 +1997,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E86CF62-45E5-47FB-8E7F-B605B576996D}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
